--- a/outcome/appendix/data/PHSMs/HBV.xlsx
+++ b/outcome/appendix/data/PHSMs/HBV.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,19 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
     <t xml:space="preserve">乙肝</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -403,31 +415,43 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>116903.606891719</v>
+        <v>116830.301628264</v>
       </c>
       <c r="C2" t="n">
-        <v>110025.539070897</v>
+        <v>109822.479559889</v>
       </c>
       <c r="D2" t="n">
-        <v>106766.83720476</v>
+        <v>106955.403360377</v>
       </c>
       <c r="E2" t="n">
-        <v>123289.419949586</v>
+        <v>123517.997949916</v>
       </c>
       <c r="F2" t="n">
-        <v>127479.625284583</v>
+        <v>127463.00113135</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>91026</v>
+      </c>
+      <c r="I2" t="n">
+        <v>25804.3016282642</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -435,25 +459,31 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>104688.241692853</v>
+        <v>104654.652070064</v>
       </c>
       <c r="C3" t="n">
-        <v>96492.303459202</v>
+        <v>96170.3371263973</v>
       </c>
       <c r="D3" t="n">
-        <v>92357.2532437114</v>
+        <v>92933.1864964493</v>
       </c>
       <c r="E3" t="n">
-        <v>112455.93627035</v>
+        <v>112028.825101231</v>
       </c>
       <c r="F3" t="n">
-        <v>116837.653634696</v>
+        <v>117974.414687333</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>51506</v>
+      </c>
+      <c r="I3" t="n">
+        <v>53148.6520700638</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -461,25 +491,31 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>122807.629170184</v>
+        <v>122236.203758393</v>
       </c>
       <c r="C4" t="n">
-        <v>113703.865941997</v>
+        <v>113563.730233316</v>
       </c>
       <c r="D4" t="n">
-        <v>109819.092601077</v>
+        <v>109330.37166043</v>
       </c>
       <c r="E4" t="n">
-        <v>131588.070660997</v>
+        <v>130198.602560757</v>
       </c>
       <c r="F4" t="n">
-        <v>137151.570576223</v>
+        <v>135343.109986183</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>88150</v>
+      </c>
+      <c r="I4" t="n">
+        <v>34086.2037583934</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -487,25 +523,31 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>113200.50649842</v>
+        <v>113179.474484772</v>
       </c>
       <c r="C5" t="n">
-        <v>104966.134091264</v>
+        <v>104669.827573288</v>
       </c>
       <c r="D5" t="n">
-        <v>99971.2487631153</v>
+        <v>99755.22770396</v>
       </c>
       <c r="E5" t="n">
-        <v>122056.496181361</v>
+        <v>121691.118738814</v>
       </c>
       <c r="F5" t="n">
-        <v>126023.161939862</v>
+        <v>127329.784481</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>101262</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11917.4744847721</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -513,25 +555,31 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>114271.775182732</v>
+        <v>114242.615746945</v>
       </c>
       <c r="C6" t="n">
-        <v>105525.638250564</v>
+        <v>104481.973802799</v>
       </c>
       <c r="D6" t="n">
-        <v>99201.2564276028</v>
+        <v>99335.7525716014</v>
       </c>
       <c r="E6" t="n">
-        <v>123178.841407719</v>
+        <v>123901.110028518</v>
       </c>
       <c r="F6" t="n">
-        <v>127080.262392617</v>
+        <v>128138.649089436</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>97651</v>
+      </c>
+      <c r="I6" t="n">
+        <v>16591.615746945</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -539,25 +587,31 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>108709.988188264</v>
+        <v>108628.404838855</v>
       </c>
       <c r="C7" t="n">
-        <v>99219.6002902624</v>
+        <v>97700.9152500098</v>
       </c>
       <c r="D7" t="n">
-        <v>93076.3697432194</v>
+        <v>92897.3501897018</v>
       </c>
       <c r="E7" t="n">
-        <v>117744.614458957</v>
+        <v>117720.397412345</v>
       </c>
       <c r="F7" t="n">
-        <v>122651.763177698</v>
+        <v>122312.939661309</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>99319</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9309.40483885535</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -565,25 +619,31 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>112821.583077846</v>
+        <v>112506.293628781</v>
       </c>
       <c r="C8" t="n">
-        <v>101927.650236594</v>
+        <v>102932.602692749</v>
       </c>
       <c r="D8" t="n">
-        <v>96601.105834397</v>
+        <v>97512.6858002248</v>
       </c>
       <c r="E8" t="n">
-        <v>123499.442192466</v>
+        <v>122350.99893103</v>
       </c>
       <c r="F8" t="n">
-        <v>127921.434591399</v>
+        <v>126515.525722511</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
         <v>102304</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10202.2936287805</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -591,25 +651,31 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>111949.700410851</v>
+        <v>112059.695103292</v>
       </c>
       <c r="C9" t="n">
-        <v>101944.018762406</v>
+        <v>102021.003225481</v>
       </c>
       <c r="D9" t="n">
-        <v>96784.9705770563</v>
+        <v>98792.7809735845</v>
       </c>
       <c r="E9" t="n">
-        <v>122652.508488028</v>
+        <v>121179.477917881</v>
       </c>
       <c r="F9" t="n">
-        <v>126998.700666412</v>
+        <v>127075.119111002</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
         <v>106135</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5924.69510329219</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -617,25 +683,31 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>102171.449058153</v>
+        <v>102469.575712538</v>
       </c>
       <c r="C10" t="n">
-        <v>90860.5291602179</v>
+        <v>90989.3823232876</v>
       </c>
       <c r="D10" t="n">
-        <v>83766.6426339176</v>
+        <v>86175.9146538387</v>
       </c>
       <c r="E10" t="n">
-        <v>113844.189061208</v>
+        <v>112493.62587821</v>
       </c>
       <c r="F10" t="n">
-        <v>117920.880318467</v>
+        <v>117722.275818097</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
         <v>105377</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-2907.42428746156</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -643,25 +715,31 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>104662.116543246</v>
+        <v>105114.670542154</v>
       </c>
       <c r="C11" t="n">
-        <v>93764.7681299477</v>
+        <v>94608.3579884657</v>
       </c>
       <c r="D11" t="n">
-        <v>88424.3618688112</v>
+        <v>87681.0967205924</v>
       </c>
       <c r="E11" t="n">
-        <v>116134.924724922</v>
+        <v>115073.02621453</v>
       </c>
       <c r="F11" t="n">
-        <v>122301.114572335</v>
+        <v>124328.667928066</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>95633</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9481.67054215398</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -669,25 +747,31 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>104290.70684315</v>
+        <v>104101.651593608</v>
       </c>
       <c r="C12" t="n">
-        <v>93475.5933742307</v>
+        <v>92143.8058779168</v>
       </c>
       <c r="D12" t="n">
-        <v>86080.2137408304</v>
+        <v>86140.7216445689</v>
       </c>
       <c r="E12" t="n">
-        <v>114749.765496042</v>
+        <v>115069.412406573</v>
       </c>
       <c r="F12" t="n">
-        <v>122293.593073041</v>
+        <v>121775.929883093</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>100561</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3540.65159360757</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -695,25 +779,31 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>101920.975485047</v>
+        <v>101694.233747261</v>
       </c>
       <c r="C13" t="n">
-        <v>90128.921024105</v>
+        <v>89989.1985018562</v>
       </c>
       <c r="D13" t="n">
-        <v>83489.8106132388</v>
+        <v>82914.9950408185</v>
       </c>
       <c r="E13" t="n">
-        <v>113273.846189781</v>
+        <v>112854.12836272</v>
       </c>
       <c r="F13" t="n">
-        <v>120718.010670447</v>
+        <v>118369.537167368</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>100209</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1485.23374726129</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -721,25 +811,31 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>118468.830617876</v>
+        <v>118911.798110542</v>
       </c>
       <c r="C14" t="n">
-        <v>105262.617337302</v>
+        <v>106276.420386529</v>
       </c>
       <c r="D14" t="n">
-        <v>96446.6461511312</v>
+        <v>100774.812350109</v>
       </c>
       <c r="E14" t="n">
-        <v>131423.582205853</v>
+        <v>130510.97198263</v>
       </c>
       <c r="F14" t="n">
-        <v>137812.697805863</v>
+        <v>138799.562417315</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>98257</v>
+      </c>
+      <c r="I14" t="n">
+        <v>20654.7981105425</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -747,25 +843,31 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>106443.783503496</v>
+        <v>106962.404515207</v>
       </c>
       <c r="C15" t="n">
-        <v>94093.9520830487</v>
+        <v>95070.2586602945</v>
       </c>
       <c r="D15" t="n">
-        <v>86529.9725225271</v>
+        <v>86539.8496087565</v>
       </c>
       <c r="E15" t="n">
-        <v>119236.260561879</v>
+        <v>120434.807821482</v>
       </c>
       <c r="F15" t="n">
-        <v>128267.443136268</v>
+        <v>125843.139520936</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>83014</v>
+      </c>
+      <c r="I15" t="n">
+        <v>23948.4045152072</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -773,25 +875,31 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>124412.702189929</v>
+        <v>124729.100513305</v>
       </c>
       <c r="C16" t="n">
-        <v>111259.54241953</v>
+        <v>110822.138442496</v>
       </c>
       <c r="D16" t="n">
-        <v>104054.733213877</v>
+        <v>104300.163609008</v>
       </c>
       <c r="E16" t="n">
-        <v>138251.050157311</v>
+        <v>137736.673548918</v>
       </c>
       <c r="F16" t="n">
-        <v>145964.340786803</v>
+        <v>143980.684503196</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
         <v>119423</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5306.10051330454</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -799,25 +907,31 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>115511.756048156</v>
+        <v>116067.034496593</v>
       </c>
       <c r="C17" t="n">
-        <v>101166.208238139</v>
+        <v>101898.740955206</v>
       </c>
       <c r="D17" t="n">
-        <v>94726.7875854151</v>
+        <v>95615.3185778168</v>
       </c>
       <c r="E17" t="n">
-        <v>128922.310170219</v>
+        <v>130205.712448727</v>
       </c>
       <c r="F17" t="n">
-        <v>137911.695159177</v>
+        <v>136545.600895237</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
         <v>110385</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5682.0344965925</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -825,25 +939,31 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>116714.264537603</v>
+        <v>116624.012515108</v>
       </c>
       <c r="C18" t="n">
-        <v>102816.384575554</v>
+        <v>103111.168281071</v>
       </c>
       <c r="D18" t="n">
-        <v>95001.9920027058</v>
+        <v>97327.2382017745</v>
       </c>
       <c r="E18" t="n">
-        <v>130005.38808207</v>
+        <v>130930.684763378</v>
       </c>
       <c r="F18" t="n">
-        <v>137843.552999574</v>
+        <v>137760.388229774</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>105393</v>
+      </c>
+      <c r="I18" t="n">
+        <v>11231.0125151077</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -851,25 +971,31 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>110995.096520589</v>
+        <v>111221.644039329</v>
       </c>
       <c r="C19" t="n">
-        <v>98098.3163723557</v>
+        <v>94883.4156790569</v>
       </c>
       <c r="D19" t="n">
-        <v>90632.0814434931</v>
+        <v>89722.6268776479</v>
       </c>
       <c r="E19" t="n">
-        <v>124850.8488714</v>
+        <v>126169.039140188</v>
       </c>
       <c r="F19" t="n">
-        <v>132478.15890138</v>
+        <v>133559.661077229</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>101633</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9588.64403932886</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -877,25 +1003,31 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>115452.16573099</v>
+        <v>115458.332231519</v>
       </c>
       <c r="C20" t="n">
-        <v>100844.899448412</v>
+        <v>101398.230566667</v>
       </c>
       <c r="D20" t="n">
-        <v>94048.9180247503</v>
+        <v>96116.3539392098</v>
       </c>
       <c r="E20" t="n">
-        <v>129584.443154078</v>
+        <v>130495.953344924</v>
       </c>
       <c r="F20" t="n">
-        <v>137438.79553858</v>
+        <v>138730.46952747</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>112287</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3171.33223151891</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -903,25 +1035,31 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>114265.21434428</v>
+        <v>114075.948007556</v>
       </c>
       <c r="C21" t="n">
-        <v>99133.6540771276</v>
+        <v>100794.05242605</v>
       </c>
       <c r="D21" t="n">
-        <v>92195.3426211747</v>
+        <v>93588.6759185834</v>
       </c>
       <c r="E21" t="n">
-        <v>128933.482236176</v>
+        <v>128691.326299899</v>
       </c>
       <c r="F21" t="n">
-        <v>139634.68560879</v>
+        <v>137793.087936378</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>102061</v>
+      </c>
+      <c r="I21" t="n">
+        <v>12014.9480075564</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -929,25 +1067,31 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>104694.39408746</v>
+        <v>105251.678929226</v>
       </c>
       <c r="C22" t="n">
-        <v>89260.9645542455</v>
+        <v>91724.3206938097</v>
       </c>
       <c r="D22" t="n">
-        <v>82182.4569137808</v>
+        <v>82080.6214697717</v>
       </c>
       <c r="E22" t="n">
-        <v>119893.326184414</v>
+        <v>120469.372547281</v>
       </c>
       <c r="F22" t="n">
-        <v>129070.68678985</v>
+        <v>125973.696464405</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
         <v>101701</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3550.67892922646</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -955,25 +1099,31 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>106757.010005374</v>
+        <v>107210.864336568</v>
       </c>
       <c r="C23" t="n">
-        <v>91285.8573488059</v>
+        <v>92240.6775898455</v>
       </c>
       <c r="D23" t="n">
-        <v>85013.8118648809</v>
+        <v>84406.1540580172</v>
       </c>
       <c r="E23" t="n">
-        <v>122863.482780921</v>
+        <v>122146.833805465</v>
       </c>
       <c r="F23" t="n">
-        <v>130756.533487388</v>
+        <v>130726.896950836</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>95942</v>
+      </c>
+      <c r="I23" t="n">
+        <v>11268.864336568</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -981,25 +1131,31 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>106266.5409207</v>
+        <v>106933.629684003</v>
       </c>
       <c r="C24" t="n">
-        <v>91367.5509614186</v>
+        <v>91146.8720872099</v>
       </c>
       <c r="D24" t="n">
-        <v>81885.7176332862</v>
+        <v>82528.5275317437</v>
       </c>
       <c r="E24" t="n">
-        <v>125173.719967352</v>
+        <v>123370.79191759</v>
       </c>
       <c r="F24" t="n">
-        <v>130397.07958273</v>
+        <v>132627.934538394</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>102598</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4335.62968400333</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1007,25 +1163,31 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>103361.323824886</v>
+        <v>104159.785389789</v>
       </c>
       <c r="C25" t="n">
-        <v>87009.710092705</v>
+        <v>89253.1464871388</v>
       </c>
       <c r="D25" t="n">
-        <v>78601.3241634788</v>
+        <v>79066.0493786379</v>
       </c>
       <c r="E25" t="n">
-        <v>120680.040446707</v>
+        <v>119757.01678523</v>
       </c>
       <c r="F25" t="n">
-        <v>129658.963299303</v>
+        <v>129797.760075252</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
         <v>108157</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-3997.21461021072</v>
+      </c>
+      <c r="J25" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1033,25 +1195,31 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>120700.044883165</v>
+        <v>121835.42600981</v>
       </c>
       <c r="C26" t="n">
-        <v>103260.740350971</v>
+        <v>107452.894135419</v>
       </c>
       <c r="D26" t="n">
-        <v>94461.3584212011</v>
+        <v>96374.1716751677</v>
       </c>
       <c r="E26" t="n">
-        <v>138018.664489242</v>
+        <v>138954.678273289</v>
       </c>
       <c r="F26" t="n">
-        <v>148648.53752684</v>
+        <v>147555.945578265</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
         <v>109531</v>
+      </c>
+      <c r="I26" t="n">
+        <v>12304.4260098095</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1059,25 +1227,31 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>108526.269470449</v>
+        <v>109608.969600318</v>
       </c>
       <c r="C27" t="n">
-        <v>91045.1271582588</v>
+        <v>92898.0209492438</v>
       </c>
       <c r="D27" t="n">
-        <v>82664.7183226674</v>
+        <v>84903.3373968271</v>
       </c>
       <c r="E27" t="n">
-        <v>124609.953867362</v>
+        <v>126517.099285606</v>
       </c>
       <c r="F27" t="n">
-        <v>135148.220518213</v>
+        <v>136499.381619053</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
         <v>96787</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12821.9696003177</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1085,25 +1259,31 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>126340.799857143</v>
+        <v>126788.481067754</v>
       </c>
       <c r="C28" t="n">
-        <v>108485.628512443</v>
+        <v>110464.131624276</v>
       </c>
       <c r="D28" t="n">
-        <v>101311.497724466</v>
+        <v>100178.06501947</v>
       </c>
       <c r="E28" t="n">
-        <v>144630.875142758</v>
+        <v>143548.506243352</v>
       </c>
       <c r="F28" t="n">
-        <v>156937.593245958</v>
+        <v>153839.094489821</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
         <v>114003</v>
+      </c>
+      <c r="I28" t="n">
+        <v>12785.4810677537</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1111,25 +1291,31 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>117278.733235089</v>
+        <v>118122.189179947</v>
       </c>
       <c r="C29" t="n">
-        <v>98536.1563593814</v>
+        <v>100566.917333499</v>
       </c>
       <c r="D29" t="n">
-        <v>89033.3983657099</v>
+        <v>91188.4133395241</v>
       </c>
       <c r="E29" t="n">
-        <v>135024.780630775</v>
+        <v>135436.919097561</v>
       </c>
       <c r="F29" t="n">
-        <v>145271.712991182</v>
+        <v>147402.919511546</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
         <v>95933</v>
+      </c>
+      <c r="I29" t="n">
+        <v>22189.1891799466</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1137,25 +1323,31 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>118004.540197994</v>
+        <v>119612.579837567</v>
       </c>
       <c r="C30" t="n">
-        <v>97719.8238614735</v>
+        <v>102887.312759573</v>
       </c>
       <c r="D30" t="n">
-        <v>88403.3291625929</v>
+        <v>92751.195758705</v>
       </c>
       <c r="E30" t="n">
-        <v>136356.512734745</v>
+        <v>138234.372505924</v>
       </c>
       <c r="F30" t="n">
-        <v>149581.837065773</v>
+        <v>150065.352820635</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
         <v>102912</v>
+      </c>
+      <c r="I30" t="n">
+        <v>16700.579837567</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1163,25 +1355,31 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>112616.895396109</v>
+        <v>113514.798126266</v>
       </c>
       <c r="C31" t="n">
-        <v>94568.6828943322</v>
+        <v>95813.0758371702</v>
       </c>
       <c r="D31" t="n">
-        <v>82350.2801730544</v>
+        <v>88705.1754317888</v>
       </c>
       <c r="E31" t="n">
-        <v>131411.635067368</v>
+        <v>132497.299189396</v>
       </c>
       <c r="F31" t="n">
-        <v>142815.138279224</v>
+        <v>141116.22560632</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
         <v>106846</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6668.79812626586</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1189,25 +1387,31 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>116891.973280702</v>
+        <v>117933.88639415</v>
       </c>
       <c r="C32" t="n">
-        <v>97841.0637647517</v>
+        <v>99931.2123371998</v>
       </c>
       <c r="D32" t="n">
-        <v>87429.4812727213</v>
+        <v>90540.1131959742</v>
       </c>
       <c r="E32" t="n">
-        <v>136313.822308695</v>
+        <v>135667.096175879</v>
       </c>
       <c r="F32" t="n">
-        <v>145942.040773952</v>
+        <v>147592.42881878</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32" t="n">
         <v>112648</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5285.88639415025</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1215,25 +1419,31 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>115886.415696598</v>
+        <v>116833.685567996</v>
       </c>
       <c r="C33" t="n">
-        <v>96475.7404846621</v>
+        <v>97650.9774322225</v>
       </c>
       <c r="D33" t="n">
-        <v>85316.0093006316</v>
+        <v>89921.3976112402</v>
       </c>
       <c r="E33" t="n">
-        <v>135965.370504945</v>
+        <v>135714.995945162</v>
       </c>
       <c r="F33" t="n">
-        <v>146989.869846191</v>
+        <v>145043.070630009</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
         <v>115375</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1458.68556799639</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1241,25 +1451,31 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>106556.491668776</v>
+        <v>107266.276328633</v>
       </c>
       <c r="C34" t="n">
-        <v>85296.6725313529</v>
+        <v>88321.8968082884</v>
       </c>
       <c r="D34" t="n">
-        <v>76184.2662331276</v>
+        <v>78484.7499333869</v>
       </c>
       <c r="E34" t="n">
-        <v>126154.413943984</v>
+        <v>126468.944952795</v>
       </c>
       <c r="F34" t="n">
-        <v>139574.555171738</v>
+        <v>137005.236454928</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>101083</v>
+      </c>
+      <c r="I34" t="n">
+        <v>6183.27632863329</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1267,25 +1483,31 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>108789.283168321</v>
+        <v>109808.922446972</v>
       </c>
       <c r="C35" t="n">
-        <v>88166.5827076165</v>
+        <v>91709.101405153</v>
       </c>
       <c r="D35" t="n">
-        <v>77015.1190675042</v>
+        <v>81565.578542779</v>
       </c>
       <c r="E35" t="n">
-        <v>129684.66315556</v>
+        <v>128391.250616009</v>
       </c>
       <c r="F35" t="n">
-        <v>145654.264122633</v>
+        <v>140379.594972184</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
         <v>90015</v>
+      </c>
+      <c r="I35" t="n">
+        <v>19793.9224469718</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1293,25 +1515,31 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>108438.388898278</v>
+        <v>109012.709282103</v>
       </c>
       <c r="C36" t="n">
-        <v>87053.4835594303</v>
+        <v>88243.5999932493</v>
       </c>
       <c r="D36" t="n">
-        <v>75956.5287948912</v>
+        <v>82310.6187578661</v>
       </c>
       <c r="E36" t="n">
-        <v>131574.176571519</v>
+        <v>129565.50748004</v>
       </c>
       <c r="F36" t="n">
-        <v>145140.445596292</v>
+        <v>141987.449746981</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
         <v>86371</v>
+      </c>
+      <c r="I36" t="n">
+        <v>22641.7092821026</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/data/PHSMs/HBV.xlsx
+++ b/outcome/appendix/data/PHSMs/HBV.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>116464.881661528</v>
+        <v>116639.125408507</v>
       </c>
       <c r="C2" t="n">
-        <v>108798.263100695</v>
+        <v>109967.092908049</v>
       </c>
       <c r="D2" t="n">
-        <v>105840.50269629</v>
+        <v>106107.086057273</v>
       </c>
       <c r="E2" t="n">
-        <v>123818.343778767</v>
+        <v>123665.637545977</v>
       </c>
       <c r="F2" t="n">
-        <v>128490.860071177</v>
+        <v>127265.902726568</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>91026</v>
       </c>
       <c r="I2" t="n">
-        <v>25438.8816615281</v>
+        <v>25613.125408507</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>104033.786431529</v>
+        <v>104264.474757258</v>
       </c>
       <c r="C3" t="n">
-        <v>96431.1338399874</v>
+        <v>96134.7306452537</v>
       </c>
       <c r="D3" t="n">
-        <v>92681.5942701759</v>
+        <v>92581.3938830984</v>
       </c>
       <c r="E3" t="n">
-        <v>111911.831597273</v>
+        <v>112048.993461313</v>
       </c>
       <c r="F3" t="n">
-        <v>116528.948543494</v>
+        <v>116405.270374512</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>51506</v>
       </c>
       <c r="I3" t="n">
-        <v>52527.7864315291</v>
+        <v>52758.4747572575</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>122183.538619661</v>
+        <v>122253.996565109</v>
       </c>
       <c r="C4" t="n">
-        <v>114950.714285879</v>
+        <v>114104.450319761</v>
       </c>
       <c r="D4" t="n">
-        <v>111756.350583313</v>
+        <v>109510.619260407</v>
       </c>
       <c r="E4" t="n">
-        <v>129767.13444951</v>
+        <v>130136.927350198</v>
       </c>
       <c r="F4" t="n">
-        <v>134952.354785089</v>
+        <v>136099.555328444</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>88150</v>
       </c>
       <c r="I4" t="n">
-        <v>34033.5386196608</v>
+        <v>34103.9965651093</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>113093.329272178</v>
+        <v>112954.395121774</v>
       </c>
       <c r="C5" t="n">
-        <v>105632.062197732</v>
+        <v>104153.721798057</v>
       </c>
       <c r="D5" t="n">
-        <v>102383.246204586</v>
+        <v>99738.699649534</v>
       </c>
       <c r="E5" t="n">
-        <v>120626.864502691</v>
+        <v>121106.019647324</v>
       </c>
       <c r="F5" t="n">
-        <v>125797.887765667</v>
+        <v>125930.149019115</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>101262</v>
       </c>
       <c r="I5" t="n">
-        <v>11831.3292721776</v>
+        <v>11692.3951217736</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>113972.554111893</v>
+        <v>114199.573579273</v>
       </c>
       <c r="C6" t="n">
-        <v>104777.396554399</v>
+        <v>105986.098421868</v>
       </c>
       <c r="D6" t="n">
-        <v>99592.7652023524</v>
+        <v>99511.8177927049</v>
       </c>
       <c r="E6" t="n">
-        <v>123754.981313247</v>
+        <v>123383.307356476</v>
       </c>
       <c r="F6" t="n">
-        <v>127734.000265684</v>
+        <v>128206.451296482</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>97651</v>
       </c>
       <c r="I6" t="n">
-        <v>16321.5541118931</v>
+        <v>16548.5735792727</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>108572.04083902</v>
+        <v>108679.937416475</v>
       </c>
       <c r="C7" t="n">
-        <v>99658.0663416819</v>
+        <v>98902.1985457651</v>
       </c>
       <c r="D7" t="n">
-        <v>95211.8933527268</v>
+        <v>94670.2274804232</v>
       </c>
       <c r="E7" t="n">
-        <v>118366.804810776</v>
+        <v>117954.87618218</v>
       </c>
       <c r="F7" t="n">
-        <v>123006.604762266</v>
+        <v>124354.578049542</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>99319</v>
       </c>
       <c r="I7" t="n">
-        <v>9253.04083901984</v>
+        <v>9360.93741647527</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>112783.407901192</v>
+        <v>113166.386405715</v>
       </c>
       <c r="C8" t="n">
-        <v>103283.420111705</v>
+        <v>103337.71131729</v>
       </c>
       <c r="D8" t="n">
-        <v>97743.2292091025</v>
+        <v>98483.3549210624</v>
       </c>
       <c r="E8" t="n">
-        <v>123188.93142268</v>
+        <v>122909.322690774</v>
       </c>
       <c r="F8" t="n">
-        <v>127411.510255179</v>
+        <v>129887.404377814</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>102304</v>
       </c>
       <c r="I8" t="n">
-        <v>10479.4079011917</v>
+        <v>10862.3864057146</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>111780.315906067</v>
+        <v>112213.434879948</v>
       </c>
       <c r="C9" t="n">
-        <v>101212.774994312</v>
+        <v>102419.582536208</v>
       </c>
       <c r="D9" t="n">
-        <v>94492.4507650317</v>
+        <v>97489.290038595</v>
       </c>
       <c r="E9" t="n">
-        <v>122170.240265025</v>
+        <v>122336.7586348</v>
       </c>
       <c r="F9" t="n">
-        <v>127651.570971616</v>
+        <v>128779.791012534</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>106135</v>
       </c>
       <c r="I9" t="n">
-        <v>5645.31590606723</v>
+        <v>6078.43487994834</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>102133.351520869</v>
+        <v>102659.2077815</v>
       </c>
       <c r="C10" t="n">
-        <v>92289.6307143149</v>
+        <v>92780.2318939625</v>
       </c>
       <c r="D10" t="n">
-        <v>85741.5140089168</v>
+        <v>85988.2109162893</v>
       </c>
       <c r="E10" t="n">
-        <v>112151.841360675</v>
+        <v>112697.763329975</v>
       </c>
       <c r="F10" t="n">
-        <v>118306.144001593</v>
+        <v>118631.46623801</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>105377</v>
       </c>
       <c r="I10" t="n">
-        <v>-3243.64847913131</v>
+        <v>-2717.79221850043</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>104508.844691709</v>
+        <v>105294.573571087</v>
       </c>
       <c r="C11" t="n">
-        <v>94189.6077796933</v>
+        <v>95137.6673485594</v>
       </c>
       <c r="D11" t="n">
-        <v>88696.8785141515</v>
+        <v>89931.3444701129</v>
       </c>
       <c r="E11" t="n">
-        <v>115283.319868613</v>
+        <v>116947.316627595</v>
       </c>
       <c r="F11" t="n">
-        <v>121478.065813024</v>
+        <v>123748.581466318</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>95633</v>
       </c>
       <c r="I11" t="n">
-        <v>8875.84469170932</v>
+        <v>9661.57357108722</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>103654.815629395</v>
+        <v>104603.78792651</v>
       </c>
       <c r="C12" t="n">
-        <v>91938.4912704237</v>
+        <v>93315.3494780266</v>
       </c>
       <c r="D12" t="n">
-        <v>85647.2556986447</v>
+        <v>87458.4170978892</v>
       </c>
       <c r="E12" t="n">
-        <v>115216.213346459</v>
+        <v>115913.195708589</v>
       </c>
       <c r="F12" t="n">
-        <v>120853.992467505</v>
+        <v>122909.798249492</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>100561</v>
       </c>
       <c r="I12" t="n">
-        <v>3093.81562939471</v>
+        <v>4042.78792651049</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>101643.708131281</v>
+        <v>102059.748020436</v>
       </c>
       <c r="C13" t="n">
-        <v>90215.7233961207</v>
+        <v>91351.2248788103</v>
       </c>
       <c r="D13" t="n">
-        <v>81849.945764315</v>
+        <v>86573.6806844505</v>
       </c>
       <c r="E13" t="n">
-        <v>113682.521353398</v>
+        <v>113388.331292131</v>
       </c>
       <c r="F13" t="n">
-        <v>117521.160655423</v>
+        <v>119782.564475022</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>100209</v>
       </c>
       <c r="I13" t="n">
-        <v>1434.70813128099</v>
+        <v>1850.74802043551</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>118207.755674686</v>
+        <v>119582.669595877</v>
       </c>
       <c r="C14" t="n">
-        <v>105538.98481043</v>
+        <v>107507.178865253</v>
       </c>
       <c r="D14" t="n">
-        <v>99748.4571644948</v>
+        <v>101140.014786928</v>
       </c>
       <c r="E14" t="n">
-        <v>130618.011158047</v>
+        <v>130979.745072383</v>
       </c>
       <c r="F14" t="n">
-        <v>135131.908674769</v>
+        <v>138630.166504325</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>98257</v>
       </c>
       <c r="I14" t="n">
-        <v>19950.7556746859</v>
+        <v>21325.6695958765</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>106285.397289664</v>
+        <v>107522.758669843</v>
       </c>
       <c r="C15" t="n">
-        <v>93312.4827502473</v>
+        <v>95083.7424074819</v>
       </c>
       <c r="D15" t="n">
-        <v>88092.3083783451</v>
+        <v>89234.6066870968</v>
       </c>
       <c r="E15" t="n">
-        <v>118372.917615691</v>
+        <v>120429.400861485</v>
       </c>
       <c r="F15" t="n">
-        <v>126356.860829088</v>
+        <v>127442.471110735</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>83014</v>
       </c>
       <c r="I15" t="n">
-        <v>23271.3972896637</v>
+        <v>24508.7586698434</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>124068.848962575</v>
+        <v>125215.834822302</v>
       </c>
       <c r="C16" t="n">
-        <v>111052.069853305</v>
+        <v>112269.414345774</v>
       </c>
       <c r="D16" t="n">
-        <v>103485.9207547</v>
+        <v>106531.634853044</v>
       </c>
       <c r="E16" t="n">
-        <v>137664.321773847</v>
+        <v>138155.504144218</v>
       </c>
       <c r="F16" t="n">
-        <v>143893.930347593</v>
+        <v>147075.488690781</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>119423</v>
       </c>
       <c r="I16" t="n">
-        <v>4645.84896257479</v>
+        <v>5792.83482230161</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>115565.879304044</v>
+        <v>116093.323342819</v>
       </c>
       <c r="C17" t="n">
-        <v>101230.840131895</v>
+        <v>103840.489203258</v>
       </c>
       <c r="D17" t="n">
-        <v>94244.2088838994</v>
+        <v>95296.5936627281</v>
       </c>
       <c r="E17" t="n">
-        <v>129851.655745964</v>
+        <v>129275.747041249</v>
       </c>
       <c r="F17" t="n">
-        <v>136846.926494276</v>
+        <v>137160.652817816</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>110385</v>
       </c>
       <c r="I17" t="n">
-        <v>5180.87930404356</v>
+        <v>5708.32334281872</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>116666.378242688</v>
+        <v>117444.238121528</v>
       </c>
       <c r="C18" t="n">
-        <v>102176.195689429</v>
+        <v>104752.318190184</v>
       </c>
       <c r="D18" t="n">
-        <v>94890.8758279071</v>
+        <v>99775.3015928201</v>
       </c>
       <c r="E18" t="n">
-        <v>130490.497162059</v>
+        <v>130306.322956541</v>
       </c>
       <c r="F18" t="n">
-        <v>138101.67414678</v>
+        <v>138239.54163273</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>105393</v>
       </c>
       <c r="I18" t="n">
-        <v>11273.3782426883</v>
+        <v>12051.2381215275</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>110558.379469482</v>
+        <v>111664.495346101</v>
       </c>
       <c r="C19" t="n">
-        <v>96412.0752075482</v>
+        <v>99416.6340003173</v>
       </c>
       <c r="D19" t="n">
-        <v>88872.6290348438</v>
+        <v>92519.6362808297</v>
       </c>
       <c r="E19" t="n">
-        <v>125017.993482399</v>
+        <v>124526.384456466</v>
       </c>
       <c r="F19" t="n">
-        <v>131205.555877606</v>
+        <v>132172.446873759</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>101633</v>
       </c>
       <c r="I19" t="n">
-        <v>8925.37946948229</v>
+        <v>10031.4953461008</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>114945.584406874</v>
+        <v>116458.828043535</v>
       </c>
       <c r="C20" t="n">
-        <v>99768.6045902257</v>
+        <v>103973.585223267</v>
       </c>
       <c r="D20" t="n">
-        <v>92662.2298470603</v>
+        <v>93433.8394617042</v>
       </c>
       <c r="E20" t="n">
-        <v>129804.075215905</v>
+        <v>129279.568442822</v>
       </c>
       <c r="F20" t="n">
-        <v>136421.485600129</v>
+        <v>137294.700253998</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>112287</v>
       </c>
       <c r="I20" t="n">
-        <v>2658.58440687439</v>
+        <v>4171.82804353454</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>114201.826798961</v>
+        <v>115119.384387164</v>
       </c>
       <c r="C21" t="n">
-        <v>99306.6841303277</v>
+        <v>101897.729750223</v>
       </c>
       <c r="D21" t="n">
-        <v>89508.6919120209</v>
+        <v>94425.1995742405</v>
       </c>
       <c r="E21" t="n">
-        <v>128902.733671101</v>
+        <v>128853.86846245</v>
       </c>
       <c r="F21" t="n">
-        <v>135277.079717238</v>
+        <v>136402.615373532</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>102061</v>
       </c>
       <c r="I21" t="n">
-        <v>12140.8267989607</v>
+        <v>13058.3843871638</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>103947.163732549</v>
+        <v>105435.958823295</v>
       </c>
       <c r="C22" t="n">
-        <v>89214.7008138296</v>
+        <v>91291.5994466152</v>
       </c>
       <c r="D22" t="n">
-        <v>81933.2871570267</v>
+        <v>83753.4218986751</v>
       </c>
       <c r="E22" t="n">
-        <v>119783.815344386</v>
+        <v>118995.010823806</v>
       </c>
       <c r="F22" t="n">
-        <v>127513.345264782</v>
+        <v>127455.466207499</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>101701</v>
       </c>
       <c r="I22" t="n">
-        <v>2246.16373254859</v>
+        <v>3734.9588232954</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>106625.233581779</v>
+        <v>107848.5428365</v>
       </c>
       <c r="C23" t="n">
-        <v>90497.3128926067</v>
+        <v>94679.0699686928</v>
       </c>
       <c r="D23" t="n">
-        <v>80671.6164002351</v>
+        <v>87292.3964050947</v>
       </c>
       <c r="E23" t="n">
-        <v>122702.721300853</v>
+        <v>121586.673299197</v>
       </c>
       <c r="F23" t="n">
-        <v>131036.059882625</v>
+        <v>129930.933973245</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>95942</v>
       </c>
       <c r="I23" t="n">
-        <v>10683.2335817792</v>
+        <v>11906.5428364999</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>106805.332293157</v>
+        <v>107511.54794816</v>
       </c>
       <c r="C24" t="n">
-        <v>90951.3912203182</v>
+        <v>92164.4381857971</v>
       </c>
       <c r="D24" t="n">
-        <v>85013.188991196</v>
+        <v>84255.5391873695</v>
       </c>
       <c r="E24" t="n">
-        <v>121769.212160791</v>
+        <v>122284.405462737</v>
       </c>
       <c r="F24" t="n">
-        <v>129112.801283093</v>
+        <v>130702.051977576</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>102598</v>
       </c>
       <c r="I24" t="n">
-        <v>4207.33229315742</v>
+        <v>4913.54794815963</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>104398.204568923</v>
+        <v>105075.524143795</v>
       </c>
       <c r="C25" t="n">
-        <v>87987.5045061392</v>
+        <v>90829.3421543344</v>
       </c>
       <c r="D25" t="n">
-        <v>76575.7639927495</v>
+        <v>85245.2149944006</v>
       </c>
       <c r="E25" t="n">
-        <v>120310.3209856</v>
+        <v>120310.885788265</v>
       </c>
       <c r="F25" t="n">
-        <v>128756.954569566</v>
+        <v>128890.100120437</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>108157</v>
       </c>
       <c r="I25" t="n">
-        <v>-3758.79543107739</v>
+        <v>-3081.47585620538</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>121109.497583649</v>
+        <v>122383.105460239</v>
       </c>
       <c r="C26" t="n">
-        <v>103454.310515147</v>
+        <v>107363.816816019</v>
       </c>
       <c r="D26" t="n">
-        <v>92591.6057076148</v>
+        <v>98722.6587101931</v>
       </c>
       <c r="E26" t="n">
-        <v>138682.510915936</v>
+        <v>138944.315400304</v>
       </c>
       <c r="F26" t="n">
-        <v>146204.089724899</v>
+        <v>146627.303811577</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>109531</v>
       </c>
       <c r="I26" t="n">
-        <v>11578.4975836487</v>
+        <v>12852.1054602394</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>108699.258349101</v>
+        <v>110010.953271717</v>
       </c>
       <c r="C27" t="n">
-        <v>90886.3453389074</v>
+        <v>94370.3781192376</v>
       </c>
       <c r="D27" t="n">
-        <v>81992.2541363065</v>
+        <v>89479.5402483831</v>
       </c>
       <c r="E27" t="n">
-        <v>125658.16055421</v>
+        <v>126572.130515048</v>
       </c>
       <c r="F27" t="n">
-        <v>132890.54481065</v>
+        <v>133887.854982541</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>96787</v>
       </c>
       <c r="I27" t="n">
-        <v>11912.2583491007</v>
+        <v>13223.953271717</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>126056.421060383</v>
+        <v>127671.256835069</v>
       </c>
       <c r="C28" t="n">
-        <v>107968.974457834</v>
+        <v>112080.937304403</v>
       </c>
       <c r="D28" t="n">
-        <v>98355.5606586481</v>
+        <v>105138.87538481</v>
       </c>
       <c r="E28" t="n">
-        <v>144452.742740286</v>
+        <v>144386.611518006</v>
       </c>
       <c r="F28" t="n">
-        <v>152120.398248179</v>
+        <v>152674.9930155</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>114003</v>
       </c>
       <c r="I28" t="n">
-        <v>12053.4210603831</v>
+        <v>13668.2568350685</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>117537.490624479</v>
+        <v>118469.409241033</v>
       </c>
       <c r="C29" t="n">
-        <v>99601.9118887617</v>
+        <v>103838.488596934</v>
       </c>
       <c r="D29" t="n">
-        <v>88189.3372815951</v>
+        <v>95130.0917884046</v>
       </c>
       <c r="E29" t="n">
-        <v>135131.861727446</v>
+        <v>136071.954023206</v>
       </c>
       <c r="F29" t="n">
-        <v>143504.977873887</v>
+        <v>145506.521312706</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>95933</v>
       </c>
       <c r="I29" t="n">
-        <v>21604.4906244788</v>
+        <v>22536.4092410333</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>118594.588445464</v>
+        <v>119776.187163244</v>
       </c>
       <c r="C30" t="n">
-        <v>98663.7409352822</v>
+        <v>103794.58499886</v>
       </c>
       <c r="D30" t="n">
-        <v>92153.2984762477</v>
+        <v>97136.4004964515</v>
       </c>
       <c r="E30" t="n">
-        <v>137193.867052375</v>
+        <v>137868.948131964</v>
       </c>
       <c r="F30" t="n">
-        <v>145430.558825334</v>
+        <v>149773.009416057</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>102912</v>
       </c>
       <c r="I30" t="n">
-        <v>15682.5884454638</v>
+        <v>16864.1871632445</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>112825.44529027</v>
+        <v>113969.914048643</v>
       </c>
       <c r="C31" t="n">
-        <v>92559.1452387619</v>
+        <v>98440.7585331456</v>
       </c>
       <c r="D31" t="n">
-        <v>83957.2699301369</v>
+        <v>90697.9124084884</v>
       </c>
       <c r="E31" t="n">
-        <v>131864.560879726</v>
+        <v>131851.091984125</v>
       </c>
       <c r="F31" t="n">
-        <v>141716.848853943</v>
+        <v>140059.658362611</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>106846</v>
       </c>
       <c r="I31" t="n">
-        <v>5979.44529026965</v>
+        <v>7123.91404864295</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>117089.383907962</v>
+        <v>117952.788460935</v>
       </c>
       <c r="C32" t="n">
-        <v>97214.5583512699</v>
+        <v>101325.386463143</v>
       </c>
       <c r="D32" t="n">
-        <v>87264.0223184319</v>
+        <v>94568.9252167456</v>
       </c>
       <c r="E32" t="n">
-        <v>135726.997629026</v>
+        <v>135761.687637249</v>
       </c>
       <c r="F32" t="n">
-        <v>144616.897214997</v>
+        <v>144817.598900381</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>112648</v>
       </c>
       <c r="I32" t="n">
-        <v>4441.38390796234</v>
+        <v>5304.78846093477</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>116106.748912565</v>
+        <v>117445.981461679</v>
       </c>
       <c r="C33" t="n">
-        <v>95392.7423518925</v>
+        <v>100331.893563639</v>
       </c>
       <c r="D33" t="n">
-        <v>87914.1785212198</v>
+        <v>91999.2342688753</v>
       </c>
       <c r="E33" t="n">
-        <v>136520.942325299</v>
+        <v>135367.168052723</v>
       </c>
       <c r="F33" t="n">
-        <v>146391.375470666</v>
+        <v>147816.606609496</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>115375</v>
       </c>
       <c r="I33" t="n">
-        <v>731.748912564653</v>
+        <v>2070.98146167949</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>106191.073539486</v>
+        <v>107673.265737337</v>
       </c>
       <c r="C34" t="n">
-        <v>84782.2488101178</v>
+        <v>90196.5418285345</v>
       </c>
       <c r="D34" t="n">
-        <v>76687.5896086257</v>
+        <v>84226.658042831</v>
       </c>
       <c r="E34" t="n">
-        <v>126457.744346352</v>
+        <v>125320.461575455</v>
       </c>
       <c r="F34" t="n">
-        <v>139464.131017653</v>
+        <v>136983.887839782</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>101083</v>
       </c>
       <c r="I34" t="n">
-        <v>5108.0735394856</v>
+        <v>6590.26573733683</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>108196.532312883</v>
+        <v>110083.552782958</v>
       </c>
       <c r="C35" t="n">
-        <v>87686.6018757532</v>
+        <v>91964.0065390613</v>
       </c>
       <c r="D35" t="n">
-        <v>76399.8299486459</v>
+        <v>83643.9994506855</v>
       </c>
       <c r="E35" t="n">
-        <v>129499.187750371</v>
+        <v>129725.16100866</v>
       </c>
       <c r="F35" t="n">
-        <v>136828.458532976</v>
+        <v>142823.140912988</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>90015</v>
       </c>
       <c r="I35" t="n">
-        <v>18181.5323128834</v>
+        <v>20068.5527829583</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>108305.774069417</v>
+        <v>109741.475588523</v>
       </c>
       <c r="C36" t="n">
-        <v>86644.7041718435</v>
+        <v>90469.9700609508</v>
       </c>
       <c r="D36" t="n">
-        <v>76935.8653727763</v>
+        <v>84397.5532216882</v>
       </c>
       <c r="E36" t="n">
-        <v>129486.988002932</v>
+        <v>130562.597344058</v>
       </c>
       <c r="F36" t="n">
-        <v>139243.07518398</v>
+        <v>138870.1750532</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>86371</v>
       </c>
       <c r="I36" t="n">
-        <v>21934.7740694171</v>
+        <v>23370.4755885231</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>

--- a/outcome/appendix/data/PHSMs/HBV.xlsx
+++ b/outcome/appendix/data/PHSMs/HBV.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>116639.125408507</v>
+        <v>116168.833273681</v>
       </c>
       <c r="C2" t="n">
-        <v>109967.092908049</v>
+        <v>109313.809625311</v>
       </c>
       <c r="D2" t="n">
-        <v>106107.086057273</v>
+        <v>105284.19634055</v>
       </c>
       <c r="E2" t="n">
-        <v>123665.637545977</v>
+        <v>123459.407013905</v>
       </c>
       <c r="F2" t="n">
-        <v>127265.902726568</v>
+        <v>126984.157744585</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>91026</v>
       </c>
       <c r="I2" t="n">
-        <v>25613.125408507</v>
+        <v>25142.8332736811</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>104264.474757258</v>
+        <v>104832.425060895</v>
       </c>
       <c r="C3" t="n">
-        <v>96134.7306452537</v>
+        <v>96689.0605103962</v>
       </c>
       <c r="D3" t="n">
-        <v>92581.3938830984</v>
+        <v>92830.7251399668</v>
       </c>
       <c r="E3" t="n">
-        <v>112048.993461313</v>
+        <v>113220.140230776</v>
       </c>
       <c r="F3" t="n">
-        <v>116405.270374512</v>
+        <v>117351.254294732</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>51506</v>
       </c>
       <c r="I3" t="n">
-        <v>52758.4747572575</v>
+        <v>53326.425060895</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>122253.996565109</v>
+        <v>122395.568633973</v>
       </c>
       <c r="C4" t="n">
-        <v>114104.450319761</v>
+        <v>113873.014621624</v>
       </c>
       <c r="D4" t="n">
-        <v>109510.619260407</v>
+        <v>108766.809137301</v>
       </c>
       <c r="E4" t="n">
-        <v>130136.927350198</v>
+        <v>130837.444428049</v>
       </c>
       <c r="F4" t="n">
-        <v>136099.555328444</v>
+        <v>136291.41765672</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>88150</v>
       </c>
       <c r="I4" t="n">
-        <v>34103.9965651093</v>
+        <v>34245.5686339729</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>112954.395121774</v>
+        <v>113518.503206869</v>
       </c>
       <c r="C5" t="n">
-        <v>104153.721798057</v>
+        <v>104410.740644341</v>
       </c>
       <c r="D5" t="n">
-        <v>99738.699649534</v>
+        <v>100369.868471658</v>
       </c>
       <c r="E5" t="n">
-        <v>121106.019647324</v>
+        <v>122631.073132649</v>
       </c>
       <c r="F5" t="n">
-        <v>125930.149019115</v>
+        <v>126853.104349999</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>101262</v>
       </c>
       <c r="I5" t="n">
-        <v>11692.3951217736</v>
+        <v>12256.5032068694</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>114199.573579273</v>
+        <v>114508.404101088</v>
       </c>
       <c r="C6" t="n">
-        <v>105986.098421868</v>
+        <v>104962.386388555</v>
       </c>
       <c r="D6" t="n">
-        <v>99511.8177927049</v>
+        <v>100632.174687842</v>
       </c>
       <c r="E6" t="n">
-        <v>123383.307356476</v>
+        <v>124074.998696565</v>
       </c>
       <c r="F6" t="n">
-        <v>128206.451296482</v>
+        <v>128373.989407559</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>97651</v>
       </c>
       <c r="I6" t="n">
-        <v>16548.5735792727</v>
+        <v>16857.404101088</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>108679.937416475</v>
+        <v>108715.695015664</v>
       </c>
       <c r="C7" t="n">
-        <v>98902.1985457651</v>
+        <v>98708.3191513282</v>
       </c>
       <c r="D7" t="n">
-        <v>94670.2274804232</v>
+        <v>94242.3617114752</v>
       </c>
       <c r="E7" t="n">
-        <v>117954.87618218</v>
+        <v>119460.444406409</v>
       </c>
       <c r="F7" t="n">
-        <v>124354.578049542</v>
+        <v>122917.793563592</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>99319</v>
       </c>
       <c r="I7" t="n">
-        <v>9360.93741647527</v>
+        <v>9396.69501566379</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>113166.386405715</v>
+        <v>112875.59713247</v>
       </c>
       <c r="C8" t="n">
-        <v>103337.71131729</v>
+        <v>103293.260610896</v>
       </c>
       <c r="D8" t="n">
-        <v>98483.3549210624</v>
+        <v>98020.9322337196</v>
       </c>
       <c r="E8" t="n">
-        <v>122909.322690774</v>
+        <v>122692.593034768</v>
       </c>
       <c r="F8" t="n">
-        <v>129887.404377814</v>
+        <v>127987.269121194</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>102304</v>
       </c>
       <c r="I8" t="n">
-        <v>10862.3864057146</v>
+        <v>10571.5971324705</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>112213.434879948</v>
+        <v>112505.009087435</v>
       </c>
       <c r="C9" t="n">
-        <v>102419.582536208</v>
+        <v>102553.07083344</v>
       </c>
       <c r="D9" t="n">
-        <v>97489.290038595</v>
+        <v>96843.3711709224</v>
       </c>
       <c r="E9" t="n">
-        <v>122336.7586348</v>
+        <v>123415.982800708</v>
       </c>
       <c r="F9" t="n">
-        <v>128779.791012534</v>
+        <v>127086.540093926</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>106135</v>
       </c>
       <c r="I9" t="n">
-        <v>6078.43487994834</v>
+        <v>6370.0090874345</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>102659.2077815</v>
+        <v>102604.818262641</v>
       </c>
       <c r="C10" t="n">
-        <v>92780.2318939625</v>
+        <v>91780.1026317643</v>
       </c>
       <c r="D10" t="n">
-        <v>85988.2109162893</v>
+        <v>85971.4073718965</v>
       </c>
       <c r="E10" t="n">
-        <v>112697.763329975</v>
+        <v>113662.535948109</v>
       </c>
       <c r="F10" t="n">
-        <v>118631.46623801</v>
+        <v>119799.420244234</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>105377</v>
       </c>
       <c r="I10" t="n">
-        <v>-2717.79221850043</v>
+        <v>-2772.18173735878</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>105294.573571087</v>
+        <v>104975.467512738</v>
       </c>
       <c r="C11" t="n">
-        <v>95137.6673485594</v>
+        <v>93998.4639979643</v>
       </c>
       <c r="D11" t="n">
-        <v>89931.3444701129</v>
+        <v>89256.5505684127</v>
       </c>
       <c r="E11" t="n">
-        <v>116947.316627595</v>
+        <v>115952.403385937</v>
       </c>
       <c r="F11" t="n">
-        <v>123748.581466318</v>
+        <v>120430.509415672</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>95633</v>
       </c>
       <c r="I11" t="n">
-        <v>9661.57357108722</v>
+        <v>9342.46751273813</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>104603.78792651</v>
+        <v>104272.239791183</v>
       </c>
       <c r="C12" t="n">
-        <v>93315.3494780266</v>
+        <v>93534.8625842363</v>
       </c>
       <c r="D12" t="n">
-        <v>87458.4170978892</v>
+        <v>87616.683378721</v>
       </c>
       <c r="E12" t="n">
-        <v>115913.195708589</v>
+        <v>114715.769989594</v>
       </c>
       <c r="F12" t="n">
-        <v>122909.798249492</v>
+        <v>120391.06705328</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>100561</v>
       </c>
       <c r="I12" t="n">
-        <v>4042.78792651049</v>
+        <v>3711.23979118325</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>102059.748020436</v>
+        <v>101563.256535276</v>
       </c>
       <c r="C13" t="n">
-        <v>91351.2248788103</v>
+        <v>89086.2973577015</v>
       </c>
       <c r="D13" t="n">
-        <v>86573.6806844505</v>
+        <v>83399.4619625469</v>
       </c>
       <c r="E13" t="n">
-        <v>113388.331292131</v>
+        <v>113410.481122527</v>
       </c>
       <c r="F13" t="n">
-        <v>119782.564475022</v>
+        <v>120434.090620833</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>100209</v>
       </c>
       <c r="I13" t="n">
-        <v>1850.74802043551</v>
+        <v>1354.25653527635</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>119582.669595877</v>
+        <v>118784.534798311</v>
       </c>
       <c r="C14" t="n">
-        <v>107507.178865253</v>
+        <v>106440.701263987</v>
       </c>
       <c r="D14" t="n">
-        <v>101140.014786928</v>
+        <v>99545.5260147918</v>
       </c>
       <c r="E14" t="n">
-        <v>130979.745072383</v>
+        <v>130901.806867837</v>
       </c>
       <c r="F14" t="n">
-        <v>138630.166504325</v>
+        <v>137778.537154616</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>98257</v>
       </c>
       <c r="I14" t="n">
-        <v>21325.6695958765</v>
+        <v>20527.5347983106</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>107522.758669843</v>
+        <v>106509.613401994</v>
       </c>
       <c r="C15" t="n">
-        <v>95083.7424074819</v>
+        <v>95051.5359024958</v>
       </c>
       <c r="D15" t="n">
-        <v>89234.6066870968</v>
+        <v>88352.6803323744</v>
       </c>
       <c r="E15" t="n">
-        <v>120429.400861485</v>
+        <v>118186.425451162</v>
       </c>
       <c r="F15" t="n">
-        <v>127442.471110735</v>
+        <v>123997.041056986</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>83014</v>
       </c>
       <c r="I15" t="n">
-        <v>24508.7586698434</v>
+        <v>23495.6134019941</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>125215.834822302</v>
+        <v>124729.185430761</v>
       </c>
       <c r="C16" t="n">
-        <v>112269.414345774</v>
+        <v>111696.798346672</v>
       </c>
       <c r="D16" t="n">
-        <v>106531.634853044</v>
+        <v>105111.897258015</v>
       </c>
       <c r="E16" t="n">
-        <v>138155.504144218</v>
+        <v>136999.067802477</v>
       </c>
       <c r="F16" t="n">
-        <v>147075.488690781</v>
+        <v>143640.040178108</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>119423</v>
       </c>
       <c r="I16" t="n">
-        <v>5792.83482230161</v>
+        <v>5306.18543076064</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>116093.323342819</v>
+        <v>115791.989189361</v>
       </c>
       <c r="C17" t="n">
-        <v>103840.489203258</v>
+        <v>102852.15783462</v>
       </c>
       <c r="D17" t="n">
-        <v>95296.5936627281</v>
+        <v>95861.0477771038</v>
       </c>
       <c r="E17" t="n">
-        <v>129275.747041249</v>
+        <v>129814.511633723</v>
       </c>
       <c r="F17" t="n">
-        <v>137160.652817816</v>
+        <v>135907.714007249</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>110385</v>
       </c>
       <c r="I17" t="n">
-        <v>5708.32334281872</v>
+        <v>5406.98918936118</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>117444.238121528</v>
+        <v>116765.488778423</v>
       </c>
       <c r="C18" t="n">
-        <v>104752.318190184</v>
+        <v>103329.763780375</v>
       </c>
       <c r="D18" t="n">
-        <v>99775.3015928201</v>
+        <v>95709.5071944876</v>
       </c>
       <c r="E18" t="n">
-        <v>130306.322956541</v>
+        <v>129363.655449162</v>
       </c>
       <c r="F18" t="n">
-        <v>138239.54163273</v>
+        <v>137731.202469154</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>105393</v>
       </c>
       <c r="I18" t="n">
-        <v>12051.2381215275</v>
+        <v>11372.4887784229</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>111664.495346101</v>
+        <v>111196.952571445</v>
       </c>
       <c r="C19" t="n">
-        <v>99416.6340003173</v>
+        <v>97051.9874828773</v>
       </c>
       <c r="D19" t="n">
-        <v>92519.6362808297</v>
+        <v>91799.8450617614</v>
       </c>
       <c r="E19" t="n">
-        <v>124526.384456466</v>
+        <v>124674.416118902</v>
       </c>
       <c r="F19" t="n">
-        <v>132172.446873759</v>
+        <v>131739.142497707</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>101633</v>
       </c>
       <c r="I19" t="n">
-        <v>10031.4953461008</v>
+        <v>9563.9525714449</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>116458.828043535</v>
+        <v>115323.351101214</v>
       </c>
       <c r="C20" t="n">
-        <v>103973.585223267</v>
+        <v>100337.555662207</v>
       </c>
       <c r="D20" t="n">
-        <v>93433.8394617042</v>
+        <v>94529.562866108</v>
       </c>
       <c r="E20" t="n">
-        <v>129279.568442822</v>
+        <v>129264.043190682</v>
       </c>
       <c r="F20" t="n">
-        <v>137294.700253998</v>
+        <v>135243.694437415</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>112287</v>
       </c>
       <c r="I20" t="n">
-        <v>4171.82804353454</v>
+        <v>3036.35110121421</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>115119.384387164</v>
+        <v>114505.461808635</v>
       </c>
       <c r="C21" t="n">
-        <v>101897.729750223</v>
+        <v>99475.1792876739</v>
       </c>
       <c r="D21" t="n">
-        <v>94425.1995742405</v>
+        <v>91951.4731227439</v>
       </c>
       <c r="E21" t="n">
-        <v>128853.86846245</v>
+        <v>128942.764188385</v>
       </c>
       <c r="F21" t="n">
-        <v>136402.615373532</v>
+        <v>135936.00195633</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>102061</v>
       </c>
       <c r="I21" t="n">
-        <v>13058.3843871638</v>
+        <v>12444.4618086348</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>105435.958823295</v>
+        <v>105294.810121146</v>
       </c>
       <c r="C22" t="n">
-        <v>91291.5994466152</v>
+        <v>90301.0416591976</v>
       </c>
       <c r="D22" t="n">
-        <v>83753.4218986751</v>
+        <v>83235.1358544626</v>
       </c>
       <c r="E22" t="n">
-        <v>118995.010823806</v>
+        <v>120840.963419213</v>
       </c>
       <c r="F22" t="n">
-        <v>127455.466207499</v>
+        <v>125345.070799451</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>101701</v>
       </c>
       <c r="I22" t="n">
-        <v>3734.9588232954</v>
+        <v>3593.81012114615</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>107848.5428365</v>
+        <v>107264.191688539</v>
       </c>
       <c r="C23" t="n">
-        <v>94679.0699686928</v>
+        <v>91818.4136073295</v>
       </c>
       <c r="D23" t="n">
-        <v>87292.3964050947</v>
+        <v>84351.904544918</v>
       </c>
       <c r="E23" t="n">
-        <v>121586.673299197</v>
+        <v>122603.105288905</v>
       </c>
       <c r="F23" t="n">
-        <v>129930.933973245</v>
+        <v>128564.259344298</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>95942</v>
       </c>
       <c r="I23" t="n">
-        <v>11906.5428364999</v>
+        <v>11322.1916885391</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>107511.54794816</v>
+        <v>107163.63997714</v>
       </c>
       <c r="C24" t="n">
-        <v>92164.4381857971</v>
+        <v>91310.9129240633</v>
       </c>
       <c r="D24" t="n">
-        <v>84255.5391873695</v>
+        <v>83218.9014567624</v>
       </c>
       <c r="E24" t="n">
-        <v>122284.405462737</v>
+        <v>123081.496645275</v>
       </c>
       <c r="F24" t="n">
-        <v>130702.051977576</v>
+        <v>129955.489314568</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>102598</v>
       </c>
       <c r="I24" t="n">
-        <v>4913.54794815963</v>
+        <v>4565.6399771398</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>105075.524143795</v>
+        <v>104273.677081879</v>
       </c>
       <c r="C25" t="n">
-        <v>90829.3421543344</v>
+        <v>88013.7732363582</v>
       </c>
       <c r="D25" t="n">
-        <v>85245.2149944006</v>
+        <v>79729.3304318472</v>
       </c>
       <c r="E25" t="n">
-        <v>120310.885788265</v>
+        <v>120553.024944884</v>
       </c>
       <c r="F25" t="n">
-        <v>128890.100120437</v>
+        <v>129237.798333376</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>108157</v>
       </c>
       <c r="I25" t="n">
-        <v>-3081.47585620538</v>
+        <v>-3883.32291812099</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>122383.105460239</v>
+        <v>121769.595962651</v>
       </c>
       <c r="C26" t="n">
-        <v>107363.816816019</v>
+        <v>104586.296542494</v>
       </c>
       <c r="D26" t="n">
-        <v>98722.6587101931</v>
+        <v>95727.0056619679</v>
       </c>
       <c r="E26" t="n">
-        <v>138944.315400304</v>
+        <v>139054.761849422</v>
       </c>
       <c r="F26" t="n">
-        <v>146627.303811577</v>
+        <v>146863.449621441</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>109531</v>
       </c>
       <c r="I26" t="n">
-        <v>12852.1054602394</v>
+        <v>12238.595962651</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>110010.953271717</v>
+        <v>109499.678239956</v>
       </c>
       <c r="C27" t="n">
-        <v>94370.3781192376</v>
+        <v>93955.0838317318</v>
       </c>
       <c r="D27" t="n">
-        <v>89479.5402483831</v>
+        <v>85514.1608831194</v>
       </c>
       <c r="E27" t="n">
-        <v>126572.130515048</v>
+        <v>126275.886991356</v>
       </c>
       <c r="F27" t="n">
-        <v>133887.854982541</v>
+        <v>133464.435392144</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>96787</v>
       </c>
       <c r="I27" t="n">
-        <v>13223.953271717</v>
+        <v>12712.6782399561</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>127671.256835069</v>
+        <v>127324.585950472</v>
       </c>
       <c r="C28" t="n">
-        <v>112080.937304403</v>
+        <v>109614.486610582</v>
       </c>
       <c r="D28" t="n">
-        <v>105138.87538481</v>
+        <v>102310.526896306</v>
       </c>
       <c r="E28" t="n">
-        <v>144386.611518006</v>
+        <v>145207.17548614</v>
       </c>
       <c r="F28" t="n">
-        <v>152674.9930155</v>
+        <v>150577.901134871</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>114003</v>
       </c>
       <c r="I28" t="n">
-        <v>13668.2568350685</v>
+        <v>13321.5859504721</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>118469.409241033</v>
+        <v>118358.91127439</v>
       </c>
       <c r="C29" t="n">
-        <v>103838.488596934</v>
+        <v>100749.42647768</v>
       </c>
       <c r="D29" t="n">
-        <v>95130.0917884046</v>
+        <v>92684.0437229383</v>
       </c>
       <c r="E29" t="n">
-        <v>136071.954023206</v>
+        <v>138229.921802725</v>
       </c>
       <c r="F29" t="n">
-        <v>145506.521312706</v>
+        <v>144215.42669444</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>95933</v>
       </c>
       <c r="I29" t="n">
-        <v>22536.4092410333</v>
+        <v>22425.9112743902</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>119776.187163244</v>
+        <v>119624.23129265</v>
       </c>
       <c r="C30" t="n">
-        <v>103794.58499886</v>
+        <v>100466.165510325</v>
       </c>
       <c r="D30" t="n">
-        <v>97136.4004964515</v>
+        <v>92337.2478741543</v>
       </c>
       <c r="E30" t="n">
-        <v>137868.948131964</v>
+        <v>138644.862810648</v>
       </c>
       <c r="F30" t="n">
-        <v>149773.009416057</v>
+        <v>147407.04926337</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>102912</v>
       </c>
       <c r="I30" t="n">
-        <v>16864.1871632445</v>
+        <v>16712.2312926498</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>113969.914048643</v>
+        <v>113977.200990184</v>
       </c>
       <c r="C31" t="n">
-        <v>98440.7585331456</v>
+        <v>95798.7869264182</v>
       </c>
       <c r="D31" t="n">
-        <v>90697.9124084884</v>
+        <v>89073.5351436533</v>
       </c>
       <c r="E31" t="n">
-        <v>131851.091984125</v>
+        <v>131600.587755666</v>
       </c>
       <c r="F31" t="n">
-        <v>140059.658362611</v>
+        <v>143637.882987075</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>106846</v>
       </c>
       <c r="I31" t="n">
-        <v>7123.91404864295</v>
+        <v>7131.20099018399</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>117952.788460935</v>
+        <v>118786.576000489</v>
       </c>
       <c r="C32" t="n">
-        <v>101325.386463143</v>
+        <v>100070.223806366</v>
       </c>
       <c r="D32" t="n">
-        <v>94568.9252167456</v>
+        <v>92286.0316367546</v>
       </c>
       <c r="E32" t="n">
-        <v>135761.687637249</v>
+        <v>137071.019980708</v>
       </c>
       <c r="F32" t="n">
-        <v>144817.598900381</v>
+        <v>147788.231497784</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>112648</v>
       </c>
       <c r="I32" t="n">
-        <v>5304.78846093477</v>
+        <v>6138.57600048929</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>117445.981461679</v>
+        <v>117877.870675012</v>
       </c>
       <c r="C33" t="n">
-        <v>100331.893563639</v>
+        <v>98019.0800265509</v>
       </c>
       <c r="D33" t="n">
-        <v>91999.2342688753</v>
+        <v>90114.7073165832</v>
       </c>
       <c r="E33" t="n">
-        <v>135367.168052723</v>
+        <v>136649.177049079</v>
       </c>
       <c r="F33" t="n">
-        <v>147816.606609496</v>
+        <v>147333.235605773</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>115375</v>
       </c>
       <c r="I33" t="n">
-        <v>2070.98146167949</v>
+        <v>2502.87067501208</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>107673.265737337</v>
+        <v>107847.205582105</v>
       </c>
       <c r="C34" t="n">
-        <v>90196.5418285345</v>
+        <v>87276.8034177638</v>
       </c>
       <c r="D34" t="n">
-        <v>84226.658042831</v>
+        <v>77048.9160283433</v>
       </c>
       <c r="E34" t="n">
-        <v>125320.461575455</v>
+        <v>128549.38674524</v>
       </c>
       <c r="F34" t="n">
-        <v>136983.887839782</v>
+        <v>137546.394961942</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>101083</v>
       </c>
       <c r="I34" t="n">
-        <v>6590.26573733683</v>
+        <v>6764.20558210547</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>110083.552782958</v>
+        <v>110220.176403464</v>
       </c>
       <c r="C35" t="n">
-        <v>91964.0065390613</v>
+        <v>90763.1239938637</v>
       </c>
       <c r="D35" t="n">
-        <v>83643.9994506855</v>
+        <v>82032.4878508339</v>
       </c>
       <c r="E35" t="n">
-        <v>129725.16100866</v>
+        <v>129532.177713776</v>
       </c>
       <c r="F35" t="n">
-        <v>142823.140912988</v>
+        <v>139380.039634485</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>90015</v>
       </c>
       <c r="I35" t="n">
-        <v>20068.5527829583</v>
+        <v>20205.176403464</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>109741.475588523</v>
+        <v>109408.778062569</v>
       </c>
       <c r="C36" t="n">
-        <v>90469.9700609508</v>
+        <v>90065.288222546</v>
       </c>
       <c r="D36" t="n">
-        <v>84397.5532216882</v>
+        <v>79491.5967641897</v>
       </c>
       <c r="E36" t="n">
-        <v>130562.597344058</v>
+        <v>130270.379140727</v>
       </c>
       <c r="F36" t="n">
-        <v>138870.1750532</v>
+        <v>139632.224636775</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>86371</v>
       </c>
       <c r="I36" t="n">
-        <v>23370.4755885231</v>
+        <v>23037.7780625692</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>

--- a/outcome/appendix/data/PHSMs/HBV.xlsx
+++ b/outcome/appendix/data/PHSMs/HBV.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>116168.833273681</v>
+        <v>116789.285257321</v>
       </c>
       <c r="C2" t="n">
-        <v>109313.809625311</v>
+        <v>109504.654090983</v>
       </c>
       <c r="D2" t="n">
-        <v>105284.19634055</v>
+        <v>105967.282430223</v>
       </c>
       <c r="E2" t="n">
-        <v>123459.407013905</v>
+        <v>124686.275337719</v>
       </c>
       <c r="F2" t="n">
-        <v>126984.157744585</v>
+        <v>127602.299021983</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>91026</v>
       </c>
       <c r="I2" t="n">
-        <v>25142.8332736811</v>
+        <v>25763.2852573207</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>104832.425060895</v>
+        <v>103994.843739405</v>
       </c>
       <c r="C3" t="n">
-        <v>96689.0605103962</v>
+        <v>96970.4852970524</v>
       </c>
       <c r="D3" t="n">
-        <v>92830.7251399668</v>
+        <v>91498.9115345899</v>
       </c>
       <c r="E3" t="n">
-        <v>113220.140230776</v>
+        <v>111911.78536891</v>
       </c>
       <c r="F3" t="n">
-        <v>117351.254294732</v>
+        <v>114452.468094831</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>51506</v>
       </c>
       <c r="I3" t="n">
-        <v>53326.425060895</v>
+        <v>52488.8437394046</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>122395.568633973</v>
+        <v>122358.327180849</v>
       </c>
       <c r="C4" t="n">
-        <v>113873.014621624</v>
+        <v>114390.364234689</v>
       </c>
       <c r="D4" t="n">
-        <v>108766.809137301</v>
+        <v>109100.579549827</v>
       </c>
       <c r="E4" t="n">
-        <v>130837.444428049</v>
+        <v>130316.017589693</v>
       </c>
       <c r="F4" t="n">
-        <v>136291.41765672</v>
+        <v>134395.83284113</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>88150</v>
       </c>
       <c r="I4" t="n">
-        <v>34245.5686339729</v>
+        <v>34208.3271808492</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>113518.503206869</v>
+        <v>113378.860349499</v>
       </c>
       <c r="C5" t="n">
-        <v>104410.740644341</v>
+        <v>104858.729261052</v>
       </c>
       <c r="D5" t="n">
-        <v>100369.868471658</v>
+        <v>100967.506649076</v>
       </c>
       <c r="E5" t="n">
-        <v>122631.073132649</v>
+        <v>121801.160779743</v>
       </c>
       <c r="F5" t="n">
-        <v>126853.104349999</v>
+        <v>125233.73928071</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>101262</v>
       </c>
       <c r="I5" t="n">
-        <v>12256.5032068694</v>
+        <v>12116.8603494988</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>114508.404101088</v>
+        <v>114300.964768311</v>
       </c>
       <c r="C6" t="n">
-        <v>104962.386388555</v>
+        <v>105382.142403267</v>
       </c>
       <c r="D6" t="n">
-        <v>100632.174687842</v>
+        <v>101167.028048125</v>
       </c>
       <c r="E6" t="n">
-        <v>124074.998696565</v>
+        <v>123469.934343354</v>
       </c>
       <c r="F6" t="n">
-        <v>128373.989407559</v>
+        <v>127359.072437067</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>97651</v>
       </c>
       <c r="I6" t="n">
-        <v>16857.404101088</v>
+        <v>16649.9647683114</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>108715.695015664</v>
+        <v>108838.650428902</v>
       </c>
       <c r="C7" t="n">
-        <v>98708.3191513282</v>
+        <v>99226.3535260441</v>
       </c>
       <c r="D7" t="n">
-        <v>94242.3617114752</v>
+        <v>94465.7811819188</v>
       </c>
       <c r="E7" t="n">
-        <v>119460.444406409</v>
+        <v>118313.481149257</v>
       </c>
       <c r="F7" t="n">
-        <v>122917.793563592</v>
+        <v>122579.903555989</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>99319</v>
       </c>
       <c r="I7" t="n">
-        <v>9396.69501566379</v>
+        <v>9519.65042890183</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>112875.59713247</v>
+        <v>112901.749864161</v>
       </c>
       <c r="C8" t="n">
-        <v>103293.260610896</v>
+        <v>103080.742812283</v>
       </c>
       <c r="D8" t="n">
-        <v>98020.9322337196</v>
+        <v>98608.2903223724</v>
       </c>
       <c r="E8" t="n">
-        <v>122692.593034768</v>
+        <v>123094.560429769</v>
       </c>
       <c r="F8" t="n">
-        <v>127987.269121194</v>
+        <v>127485.546552157</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>102304</v>
       </c>
       <c r="I8" t="n">
-        <v>10571.5971324705</v>
+        <v>10597.7498641613</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>112505.009087435</v>
+        <v>111734.638687349</v>
       </c>
       <c r="C9" t="n">
-        <v>102553.07083344</v>
+        <v>101793.945128848</v>
       </c>
       <c r="D9" t="n">
-        <v>96843.3711709224</v>
+        <v>97674.4120607763</v>
       </c>
       <c r="E9" t="n">
-        <v>123415.982800708</v>
+        <v>121776.415535447</v>
       </c>
       <c r="F9" t="n">
-        <v>127086.540093926</v>
+        <v>126736.65341991</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>106135</v>
       </c>
       <c r="I9" t="n">
-        <v>6370.0090874345</v>
+        <v>5599.63868734882</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>102604.818262641</v>
+        <v>102440.98453939</v>
       </c>
       <c r="C10" t="n">
-        <v>91780.1026317643</v>
+        <v>91169.5008043546</v>
       </c>
       <c r="D10" t="n">
-        <v>85971.4073718965</v>
+        <v>86228.2807855309</v>
       </c>
       <c r="E10" t="n">
-        <v>113662.535948109</v>
+        <v>112844.595725229</v>
       </c>
       <c r="F10" t="n">
-        <v>119799.420244234</v>
+        <v>118279.212215841</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>105377</v>
       </c>
       <c r="I10" t="n">
-        <v>-2772.18173735878</v>
+        <v>-2936.01546061043</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>104975.467512738</v>
+        <v>105296.866448337</v>
       </c>
       <c r="C11" t="n">
-        <v>93998.4639979643</v>
+        <v>94654.0507735155</v>
       </c>
       <c r="D11" t="n">
-        <v>89256.5505684127</v>
+        <v>89645.6189910836</v>
       </c>
       <c r="E11" t="n">
-        <v>115952.403385937</v>
+        <v>116066.184623402</v>
       </c>
       <c r="F11" t="n">
-        <v>120430.509415672</v>
+        <v>120397.303695727</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>95633</v>
       </c>
       <c r="I11" t="n">
-        <v>9342.46751273813</v>
+        <v>9663.86644833727</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>104272.239791183</v>
+        <v>104183.38408271</v>
       </c>
       <c r="C12" t="n">
-        <v>93534.8625842363</v>
+        <v>92437.722982702</v>
       </c>
       <c r="D12" t="n">
-        <v>87616.683378721</v>
+        <v>86585.137141834</v>
       </c>
       <c r="E12" t="n">
-        <v>114715.769989594</v>
+        <v>115962.989387261</v>
       </c>
       <c r="F12" t="n">
-        <v>120391.06705328</v>
+        <v>121294.564225157</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>100561</v>
       </c>
       <c r="I12" t="n">
-        <v>3711.23979118325</v>
+        <v>3622.38408271036</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>101563.256535276</v>
+        <v>101956.498228134</v>
       </c>
       <c r="C13" t="n">
-        <v>89086.2973577015</v>
+        <v>90688.8159788464</v>
       </c>
       <c r="D13" t="n">
-        <v>83399.4619625469</v>
+        <v>86262.7232827484</v>
       </c>
       <c r="E13" t="n">
-        <v>113410.481122527</v>
+        <v>113591.101420175</v>
       </c>
       <c r="F13" t="n">
-        <v>120434.090620833</v>
+        <v>117998.81434705</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>100209</v>
       </c>
       <c r="I13" t="n">
-        <v>1354.25653527635</v>
+        <v>1747.49822813405</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>118784.534798311</v>
+        <v>119363.067367022</v>
       </c>
       <c r="C14" t="n">
-        <v>106440.701263987</v>
+        <v>107113.87418771</v>
       </c>
       <c r="D14" t="n">
-        <v>99545.5260147918</v>
+        <v>100328.898082453</v>
       </c>
       <c r="E14" t="n">
-        <v>130901.806867837</v>
+        <v>132636.75124848</v>
       </c>
       <c r="F14" t="n">
-        <v>137778.537154616</v>
+        <v>138926.083985212</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>98257</v>
       </c>
       <c r="I14" t="n">
-        <v>20527.5347983106</v>
+        <v>21106.067367022</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>106509.613401994</v>
+        <v>106592.043663742</v>
       </c>
       <c r="C15" t="n">
-        <v>95051.5359024958</v>
+        <v>94093.0347442018</v>
       </c>
       <c r="D15" t="n">
-        <v>88352.6803323744</v>
+        <v>86744.864128847</v>
       </c>
       <c r="E15" t="n">
-        <v>118186.425451162</v>
+        <v>119690.525147055</v>
       </c>
       <c r="F15" t="n">
-        <v>123997.041056986</v>
+        <v>124407.57938035</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>83014</v>
       </c>
       <c r="I15" t="n">
-        <v>23495.6134019941</v>
+        <v>23578.0436637417</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>124729.185430761</v>
+        <v>124766.571323058</v>
       </c>
       <c r="C16" t="n">
-        <v>111696.798346672</v>
+        <v>113511.217972994</v>
       </c>
       <c r="D16" t="n">
-        <v>105111.897258015</v>
+        <v>104946.335496161</v>
       </c>
       <c r="E16" t="n">
-        <v>136999.067802477</v>
+        <v>139381.549180683</v>
       </c>
       <c r="F16" t="n">
-        <v>143640.040178108</v>
+        <v>144475.482368075</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>119423</v>
       </c>
       <c r="I16" t="n">
-        <v>5306.18543076064</v>
+        <v>5343.57132305781</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>115791.989189361</v>
+        <v>115612.264832069</v>
       </c>
       <c r="C17" t="n">
-        <v>102852.15783462</v>
+        <v>104214.689117265</v>
       </c>
       <c r="D17" t="n">
-        <v>95861.0477771038</v>
+        <v>95996.5849916201</v>
       </c>
       <c r="E17" t="n">
-        <v>129814.511633723</v>
+        <v>128076.387858619</v>
       </c>
       <c r="F17" t="n">
-        <v>135907.714007249</v>
+        <v>135557.186356835</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>110385</v>
       </c>
       <c r="I17" t="n">
-        <v>5406.98918936118</v>
+        <v>5227.2648320693</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>116765.488778423</v>
+        <v>116600.750621209</v>
       </c>
       <c r="C18" t="n">
-        <v>103329.763780375</v>
+        <v>103392.792946294</v>
       </c>
       <c r="D18" t="n">
-        <v>95709.5071944876</v>
+        <v>95489.8857375593</v>
       </c>
       <c r="E18" t="n">
-        <v>129363.655449162</v>
+        <v>130333.418268387</v>
       </c>
       <c r="F18" t="n">
-        <v>137731.202469154</v>
+        <v>138049.195714955</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>105393</v>
       </c>
       <c r="I18" t="n">
-        <v>11372.4887784229</v>
+        <v>11207.7506212087</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>111196.952571445</v>
+        <v>111081.779036424</v>
       </c>
       <c r="C19" t="n">
-        <v>97051.9874828773</v>
+        <v>96423.5152660892</v>
       </c>
       <c r="D19" t="n">
-        <v>91799.8450617614</v>
+        <v>87936.4745368495</v>
       </c>
       <c r="E19" t="n">
-        <v>124674.416118902</v>
+        <v>125321.46513576</v>
       </c>
       <c r="F19" t="n">
-        <v>131739.142497707</v>
+        <v>133704.547811</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>101633</v>
       </c>
       <c r="I19" t="n">
-        <v>9563.9525714449</v>
+        <v>9448.77903642383</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>115323.351101214</v>
+        <v>115361.184541697</v>
       </c>
       <c r="C20" t="n">
-        <v>100337.555662207</v>
+        <v>100674.519507487</v>
       </c>
       <c r="D20" t="n">
-        <v>94529.562866108</v>
+        <v>95060.5783766874</v>
       </c>
       <c r="E20" t="n">
-        <v>129264.043190682</v>
+        <v>130145.933764809</v>
       </c>
       <c r="F20" t="n">
-        <v>135243.694437415</v>
+        <v>137590.760249334</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>112287</v>
       </c>
       <c r="I20" t="n">
-        <v>3036.35110121421</v>
+        <v>3074.1845416974</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>114505.461808635</v>
+        <v>114740.647141269</v>
       </c>
       <c r="C21" t="n">
-        <v>99475.1792876739</v>
+        <v>100016.830064625</v>
       </c>
       <c r="D21" t="n">
-        <v>91951.4731227439</v>
+        <v>93392.102368367</v>
       </c>
       <c r="E21" t="n">
-        <v>128942.764188385</v>
+        <v>130997.699663737</v>
       </c>
       <c r="F21" t="n">
-        <v>135936.00195633</v>
+        <v>137636.574409553</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>102061</v>
       </c>
       <c r="I21" t="n">
-        <v>12444.4618086348</v>
+        <v>12679.6471412692</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>105294.810121146</v>
+        <v>104952.615386672</v>
       </c>
       <c r="C22" t="n">
-        <v>90301.0416591976</v>
+        <v>89674.9414246369</v>
       </c>
       <c r="D22" t="n">
-        <v>83235.1358544626</v>
+        <v>82947.0140564044</v>
       </c>
       <c r="E22" t="n">
-        <v>120840.963419213</v>
+        <v>121938.654705538</v>
       </c>
       <c r="F22" t="n">
-        <v>125345.070799451</v>
+        <v>129746.938891176</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>101701</v>
       </c>
       <c r="I22" t="n">
-        <v>3593.81012114615</v>
+        <v>3251.61538667229</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>107264.191688539</v>
+        <v>107561.807086219</v>
       </c>
       <c r="C23" t="n">
-        <v>91818.4136073295</v>
+        <v>92351.5068210012</v>
       </c>
       <c r="D23" t="n">
-        <v>84351.904544918</v>
+        <v>84638.1722618577</v>
       </c>
       <c r="E23" t="n">
-        <v>122603.105288905</v>
+        <v>123146.25536691</v>
       </c>
       <c r="F23" t="n">
-        <v>128564.259344298</v>
+        <v>133689.200731027</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>95942</v>
       </c>
       <c r="I23" t="n">
-        <v>11322.1916885391</v>
+        <v>11619.807086219</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>107163.63997714</v>
+        <v>106712.988694516</v>
       </c>
       <c r="C24" t="n">
-        <v>91310.9129240633</v>
+        <v>91456.103131387</v>
       </c>
       <c r="D24" t="n">
-        <v>83218.9014567624</v>
+        <v>81933.9759173043</v>
       </c>
       <c r="E24" t="n">
-        <v>123081.496645275</v>
+        <v>123012.004939941</v>
       </c>
       <c r="F24" t="n">
-        <v>129955.489314568</v>
+        <v>133746.564409717</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>102598</v>
       </c>
       <c r="I24" t="n">
-        <v>4565.6399771398</v>
+        <v>4114.98869451611</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>104273.677081879</v>
+        <v>104385.70881101</v>
       </c>
       <c r="C25" t="n">
-        <v>88013.7732363582</v>
+        <v>89043.7445456703</v>
       </c>
       <c r="D25" t="n">
-        <v>79729.3304318472</v>
+        <v>79602.8833529934</v>
       </c>
       <c r="E25" t="n">
-        <v>120553.024944884</v>
+        <v>120976.675233669</v>
       </c>
       <c r="F25" t="n">
-        <v>129237.798333376</v>
+        <v>131869.358714816</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>108157</v>
       </c>
       <c r="I25" t="n">
-        <v>-3883.32291812099</v>
+        <v>-3771.29118899028</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>121769.595962651</v>
+        <v>122141.477911815</v>
       </c>
       <c r="C26" t="n">
-        <v>104586.296542494</v>
+        <v>105534.666587195</v>
       </c>
       <c r="D26" t="n">
-        <v>95727.0056619679</v>
+        <v>95374.3861371691</v>
       </c>
       <c r="E26" t="n">
-        <v>139054.761849422</v>
+        <v>139558.40178172</v>
       </c>
       <c r="F26" t="n">
-        <v>146863.449621441</v>
+        <v>152981.36634396</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>109531</v>
       </c>
       <c r="I26" t="n">
-        <v>12238.595962651</v>
+        <v>12610.4779118146</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>109499.678239956</v>
+        <v>109561.797553954</v>
       </c>
       <c r="C27" t="n">
-        <v>93955.0838317318</v>
+        <v>92780.5522298092</v>
       </c>
       <c r="D27" t="n">
-        <v>85514.1608831194</v>
+        <v>85886.3398778998</v>
       </c>
       <c r="E27" t="n">
-        <v>126275.886991356</v>
+        <v>126090.426765374</v>
       </c>
       <c r="F27" t="n">
-        <v>133464.435392144</v>
+        <v>137712.997675596</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>96787</v>
       </c>
       <c r="I27" t="n">
-        <v>12712.6782399561</v>
+        <v>12774.7975539543</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>127324.585950472</v>
+        <v>127252.841874435</v>
       </c>
       <c r="C28" t="n">
-        <v>109614.486610582</v>
+        <v>110887.877433386</v>
       </c>
       <c r="D28" t="n">
-        <v>102310.526896306</v>
+        <v>101395.126769917</v>
       </c>
       <c r="E28" t="n">
-        <v>145207.17548614</v>
+        <v>145766.396634774</v>
       </c>
       <c r="F28" t="n">
-        <v>150577.901134871</v>
+        <v>156413.742412195</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>114003</v>
       </c>
       <c r="I28" t="n">
-        <v>13321.5859504721</v>
+        <v>13249.8418744346</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>118358.91127439</v>
+        <v>118715.747077947</v>
       </c>
       <c r="C29" t="n">
-        <v>100749.42647768</v>
+        <v>100236.909221468</v>
       </c>
       <c r="D29" t="n">
-        <v>92684.0437229383</v>
+        <v>91640.9319959471</v>
       </c>
       <c r="E29" t="n">
-        <v>138229.921802725</v>
+        <v>137037.959709605</v>
       </c>
       <c r="F29" t="n">
-        <v>144215.42669444</v>
+        <v>147394.597461622</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>95933</v>
       </c>
       <c r="I29" t="n">
-        <v>22425.9112743902</v>
+        <v>22782.7470779472</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>119624.23129265</v>
+        <v>119910.734740832</v>
       </c>
       <c r="C30" t="n">
-        <v>100466.165510325</v>
+        <v>103679.236224741</v>
       </c>
       <c r="D30" t="n">
-        <v>92337.2478741543</v>
+        <v>94063.7443721575</v>
       </c>
       <c r="E30" t="n">
-        <v>138644.862810648</v>
+        <v>137524.877157735</v>
       </c>
       <c r="F30" t="n">
-        <v>147407.04926337</v>
+        <v>151094.142225869</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>102912</v>
       </c>
       <c r="I30" t="n">
-        <v>16712.2312926498</v>
+        <v>16998.7347408324</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>113977.200990184</v>
+        <v>113825.239530532</v>
       </c>
       <c r="C31" t="n">
-        <v>95798.7869264182</v>
+        <v>94931.4685967098</v>
       </c>
       <c r="D31" t="n">
-        <v>89073.5351436533</v>
+        <v>86558.4894841983</v>
       </c>
       <c r="E31" t="n">
-        <v>131600.587755666</v>
+        <v>132781.01975517</v>
       </c>
       <c r="F31" t="n">
-        <v>143637.882987075</v>
+        <v>145651.313094884</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>106846</v>
       </c>
       <c r="I31" t="n">
-        <v>7131.20099018399</v>
+        <v>6979.23953053202</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>118786.576000489</v>
+        <v>118293.175213569</v>
       </c>
       <c r="C32" t="n">
-        <v>100070.223806366</v>
+        <v>100358.701554955</v>
       </c>
       <c r="D32" t="n">
-        <v>92286.0316367546</v>
+        <v>90442.2662450934</v>
       </c>
       <c r="E32" t="n">
-        <v>137071.019980708</v>
+        <v>138272.584222967</v>
       </c>
       <c r="F32" t="n">
-        <v>147788.231497784</v>
+        <v>150449.447654483</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>112648</v>
       </c>
       <c r="I32" t="n">
-        <v>6138.57600048929</v>
+        <v>5645.17521356934</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>117877.870675012</v>
+        <v>117363.919657343</v>
       </c>
       <c r="C33" t="n">
-        <v>98019.0800265509</v>
+        <v>98809.2527911697</v>
       </c>
       <c r="D33" t="n">
-        <v>90114.7073165832</v>
+        <v>86149.5061026662</v>
       </c>
       <c r="E33" t="n">
-        <v>136649.177049079</v>
+        <v>136679.161806514</v>
       </c>
       <c r="F33" t="n">
-        <v>147333.235605773</v>
+        <v>147900.562807168</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>115375</v>
       </c>
       <c r="I33" t="n">
-        <v>2502.87067501208</v>
+        <v>1988.91965734278</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>107847.205582105</v>
+        <v>107711.410484044</v>
       </c>
       <c r="C34" t="n">
-        <v>87276.8034177638</v>
+        <v>87701.6948230203</v>
       </c>
       <c r="D34" t="n">
-        <v>77048.9160283433</v>
+        <v>80219.5866247444</v>
       </c>
       <c r="E34" t="n">
-        <v>128549.38674524</v>
+        <v>127621.608079436</v>
       </c>
       <c r="F34" t="n">
-        <v>137546.394961942</v>
+        <v>138696.040424187</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>101083</v>
       </c>
       <c r="I34" t="n">
-        <v>6764.20558210547</v>
+        <v>6628.41048404369</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>110220.176403464</v>
+        <v>110000.481049071</v>
       </c>
       <c r="C35" t="n">
-        <v>90763.1239938637</v>
+        <v>90278.3614508221</v>
       </c>
       <c r="D35" t="n">
-        <v>82032.4878508339</v>
+        <v>79850.760307659</v>
       </c>
       <c r="E35" t="n">
-        <v>129532.177713776</v>
+        <v>130255.92780731</v>
       </c>
       <c r="F35" t="n">
-        <v>139380.039634485</v>
+        <v>143319.053169368</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>90015</v>
       </c>
       <c r="I35" t="n">
-        <v>20205.176403464</v>
+        <v>19985.4810490709</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>109408.778062569</v>
+        <v>109475.025866729</v>
       </c>
       <c r="C36" t="n">
-        <v>90065.288222546</v>
+        <v>89144.433930578</v>
       </c>
       <c r="D36" t="n">
-        <v>79491.5967641897</v>
+        <v>77202.9751959559</v>
       </c>
       <c r="E36" t="n">
-        <v>130270.379140727</v>
+        <v>129304.192584712</v>
       </c>
       <c r="F36" t="n">
-        <v>139632.224636775</v>
+        <v>144323.074267837</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>86371</v>
       </c>
       <c r="I36" t="n">
-        <v>23037.7780625692</v>
+        <v>23104.0258667294</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
